--- a/data/initiator.xlsx
+++ b/data/initiator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" tabRatio="884" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" tabRatio="884" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="add_initiator" sheetId="21" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="98">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,10 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>initiator -a add -i 100 -t iscsi -n abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Invalid setting initiator type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,10 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Invalid setting index value when adds initiator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Invalid setting index value when lists initiator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,10 +346,6 @@
   </si>
   <si>
     <t>initiator -a del -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initiator -c 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -787,7 +775,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -889,7 +877,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
@@ -1117,7 +1105,7 @@
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1135,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1173,62 +1161,62 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1239,37 +1227,29 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
         <v>83</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C11" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C16" s="1"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C22" s="1"/>
@@ -1283,8 +1263,8 @@
     <row r="25" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C26" s="1"/>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C29" s="1"/>
@@ -1292,8 +1272,8 @@
     <row r="30" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C31" s="1"/>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D35" s="2"/>
@@ -1301,8 +1281,8 @@
     <row r="36" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D37" s="2"/>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D44" s="3"/>
@@ -1312,9 +1292,6 @@
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D47" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1361,7 +1338,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1372,7 +1349,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1389,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1417,7 +1394,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1425,7 +1402,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1436,7 +1413,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1447,7 +1424,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1458,7 +1435,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1469,7 +1446,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1480,7 +1457,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1491,23 +1468,12 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
         <v>1</v>
       </c>
     </row>
